--- a/data/keywords-e3bea828b4557837613c948ec09d255f.xlsx
+++ b/data/keywords-e3bea828b4557837613c948ec09d255f.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -436,13 +436,13 @@
         <v>Published</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-02</v>
+        <v>2025-05-10</v>
       </c>
       <c r="D2" t="str">
-        <v>https://recipeelegance.com/?p=11122</v>
+        <v>https://recipeelegance.com/?p=11195</v>
       </c>
       <c r="E2">
-        <v>11122</v>
+        <v>11195</v>
       </c>
       <c r="F2" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -459,16 +459,16 @@
         <v>beef pasta</v>
       </c>
       <c r="B3" t="str">
-        <v>Pending</v>
+        <v>Published</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>2025-05-10</v>
       </c>
       <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
+        <v>https://recipeelegance.com/?p=11205</v>
+      </c>
+      <c r="E3">
+        <v>11205</v>
       </c>
       <c r="F3" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -485,16 +485,16 @@
         <v>burger</v>
       </c>
       <c r="B4" t="str">
-        <v>Pending</v>
+        <v>Published</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>2025-05-09</v>
       </c>
       <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
+        <v>https://recipeelegance.com/?p=11177</v>
+      </c>
+      <c r="E4">
+        <v>11177</v>
       </c>
       <c r="F4" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -904,13 +904,13 @@
         <v>Published</v>
       </c>
       <c r="C20" t="str">
-        <v>2025-04-24</v>
+        <v>2025-05-09</v>
       </c>
       <c r="D20" t="str">
-        <v>https://recipeelegance.com/?p=10579</v>
+        <v>https://recipeelegance.com/?p=11163</v>
       </c>
       <c r="E20">
-        <v>10579</v>
+        <v>11163</v>
       </c>
       <c r="F20" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -930,13 +930,13 @@
         <v>Published</v>
       </c>
       <c r="C21" t="str">
-        <v>2025-04-25</v>
+        <v>2025-05-09</v>
       </c>
       <c r="D21" t="str">
-        <v>https://recipeelegance.com/?p=10637</v>
+        <v>https://recipeelegance.com/?p=11182</v>
       </c>
       <c r="E21">
-        <v>10637</v>
+        <v>11182</v>
       </c>
       <c r="F21" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -956,13 +956,13 @@
         <v>Published</v>
       </c>
       <c r="C22" t="str">
-        <v>2025-04-25</v>
+        <v>2025-05-10</v>
       </c>
       <c r="D22" t="str">
-        <v>https://recipeelegance.com/?p=10614</v>
+        <v>https://recipeelegance.com/?p=11200</v>
       </c>
       <c r="E22">
-        <v>10614</v>
+        <v>11200</v>
       </c>
       <c r="F22" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -1005,16 +1005,16 @@
         <v>tacos</v>
       </c>
       <c r="B24" t="str">
-        <v>Published</v>
+        <v>Pending</v>
       </c>
       <c r="C24" t="str">
-        <v>2025-04-25</v>
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v>https://recipeelegance.com/?p=10635</v>
-      </c>
-      <c r="E24">
-        <v>10635</v>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
       </c>
       <c r="F24" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -1060,13 +1060,13 @@
         <v>Published</v>
       </c>
       <c r="C26" t="str">
-        <v>2025-04-25</v>
+        <v>2025-05-09</v>
       </c>
       <c r="D26" t="str">
-        <v>https://recipeelegance.com/?p=10616</v>
+        <v>https://recipeelegance.com/?p=11172</v>
       </c>
       <c r="E26">
-        <v>10616</v>
+        <v>11172</v>
       </c>
       <c r="F26" t="str">
         <v>d6c0c1ced9f74621f986b5384b016bbf</v>
@@ -1104,9 +1104,35 @@
         <v>2025-04-25T20:44:05.868Z</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>chicken pasta</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Published</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2025-05-09</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://recipeelegance.com/?p=11189</v>
+      </c>
+      <c r="E28">
+        <v>11189</v>
+      </c>
+      <c r="F28" t="str">
+        <v>d6c0c1ced9f74621f986b5384b016bbf</v>
+      </c>
+      <c r="G28" t="str">
+        <v>d6c0c1ced9f74621f986b5384b016bbf</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2025-05-09T19:29:41.564Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H28"/>
   </ignoredErrors>
 </worksheet>
 </file>